--- a/StructureDefinition-onc-abc-chart.xlsx
+++ b/StructureDefinition-onc-abc-chart.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-01T16:16:25+00:00</t>
+    <t>2026-01-02T16:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-abc-chart.xlsx
+++ b/StructureDefinition-onc-abc-chart.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:06:53+00:00</t>
+    <t>2026-01-02T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-nursing-assessment</t>
+    <t>https://opennursingcoreig.com/StructureDefinition/onc-nursing-assessment</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -899,7 +899,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/onc-pbs-function-vs</t>
+    <t>https://opennursingcoreig.com/ValueSet/onc-pbs-function-vs</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -2168,7 +2168,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.52734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.65625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-onc-abc-chart.xlsx
+++ b/StructureDefinition-onc-abc-chart.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:43:46+00:00</t>
+    <t>2026-01-02T23:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-abc-chart.xlsx
+++ b/StructureDefinition-onc-abc-chart.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:54:54+00:00</t>
+    <t>2026-01-03T00:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-abc-chart.xlsx
+++ b/StructureDefinition-onc-abc-chart.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:14:22+00:00</t>
+    <t>2026-01-03T00:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-abc-chart.xlsx
+++ b/StructureDefinition-onc-abc-chart.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:34:03+00:00</t>
+    <t>2026-01-03T01:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-abc-chart.xlsx
+++ b/StructureDefinition-onc-abc-chart.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T01:26:42+00:00</t>
+    <t>2026-01-03T01:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
